--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bsg-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bsg-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.400308</v>
+        <v>21.50919633333334</v>
       </c>
       <c r="H2">
-        <v>148.200924</v>
+        <v>64.52758900000001</v>
       </c>
       <c r="I2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="J2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>361.7055642209013</v>
+        <v>11.34215054344011</v>
       </c>
       <c r="R2">
-        <v>3255.350077988112</v>
+        <v>102.079354890961</v>
       </c>
       <c r="S2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
       <c r="T2">
-        <v>0.3028101582105581</v>
+        <v>0.1832723264758264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>208.692447</v>
       </c>
       <c r="I3">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="J3">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>509.3437831114706</v>
+        <v>36.68231198213366</v>
       </c>
       <c r="R3">
-        <v>4584.094048003236</v>
+        <v>330.140807839203</v>
       </c>
       <c r="S3">
-        <v>0.4264088994034781</v>
+        <v>0.5927317426910698</v>
       </c>
       <c r="T3">
-        <v>0.4264088994034782</v>
+        <v>0.5927317426910698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.17507666666666</v>
+        <v>26.28859766666667</v>
       </c>
       <c r="H4">
-        <v>132.52523</v>
+        <v>78.86579300000001</v>
       </c>
       <c r="I4">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="J4">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>323.4467896479155</v>
+        <v>13.86240693006189</v>
       </c>
       <c r="R4">
-        <v>2911.021106831239</v>
+        <v>124.761662370557</v>
       </c>
       <c r="S4">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
       <c r="T4">
-        <v>0.2707809423859638</v>
+        <v>0.2239959308331038</v>
       </c>
     </row>
   </sheetData>
